--- a/static/xlxsTemplate/finished_warehousing.xlsx
+++ b/static/xlxsTemplate/finished_warehousing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workSpace\git\iot.vue\static\xlxsTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659476D9-9D70-4C0F-8AEB-5E5015BCA828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FA8657-D190-471E-BFA2-A13D2B26731A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>纱牌
 Nhãn hiệu sợi</t>
@@ -423,6 +423,18 @@
       <t xml:space="preserve">
 Khách hàng</t>
     </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:arr1.yardLength1}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:arr2.yardLength1}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:arr3.yardLength1}</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1230,8 +1242,8 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1418,21 +1430,27 @@
       <c r="B10" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="30" t="s">
+        <v>48</v>
+      </c>
       <c r="D10" s="30" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="29"/>
+      <c r="F10" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="G10" s="30" t="s">
         <v>39</v>
       </c>
       <c r="H10" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="29"/>
+      <c r="I10" s="29" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
